--- a/Reports/furnitureReport.xlsx
+++ b/Reports/furnitureReport.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="327">
   <si>
     <t>Название товара</t>
   </si>
@@ -47,7 +47,7 @@
 150 кг</t>
   </si>
   <si>
-    <t>2022-06-14T14:30:22.833Z</t>
+    <t>14/06/2022, 22:04:57</t>
   </si>
   <si>
     <t>Intex 64144 матрас, насос в комплекте внешний, 203x183x25 см</t>
@@ -88,6 +88,15 @@
     <t/>
   </si>
   <si>
+    <t>Nika Эконом ТЭ-2, металл, 46.5 смx32 смx32 см, бежевый</t>
+  </si>
+  <si>
+    <t>16700785</t>
+  </si>
+  <si>
+    <t>https://kaspi.kz/shop/p/nika-ekonom-te-2-metall-46-5-smx32-smx32-sm-bezhevyi-16700785/?c=750000000</t>
+  </si>
+  <si>
     <t>Youlite Вешалка напольная металл, 150x160 см, YLT-0327A</t>
   </si>
   <si>
@@ -97,15 +106,6 @@
     <t>https://kaspi.kz/shop/p/youlite-veshalka-napol-naja-metall-150x160-sm-ylt-0327a-100980935/?c=750000000</t>
   </si>
   <si>
-    <t>Nika Эконом ТЭ-2, металл, 46.5 смx32 смx32 см, бежевый</t>
-  </si>
-  <si>
-    <t>16700785</t>
-  </si>
-  <si>
-    <t>https://kaspi.kz/shop/p/nika-ekonom-te-2-metall-46-5-smx32-smx32-sm-bezhevyi-16700785/?c=750000000</t>
-  </si>
-  <si>
     <t>Ип Мереке Трансформер</t>
   </si>
   <si>
@@ -124,7 +124,13 @@
     <t>https://kaspi.kz/shop/p/arman-company-komfort-p36-divan-obivka-veljur-60x284x140-sm-sinii-102085936/?c=750000000</t>
   </si>
   <si>
-    <t>2022-06-14T14:30:22.834Z</t>
+    <t>Этажерка для обуви Nika ЭТК3/Ч металл, 80x33x59 см, черный</t>
+  </si>
+  <si>
+    <t>100881457</t>
+  </si>
+  <si>
+    <t>https://kaspi.kz/shop/p/etazherka-dlja-obuvi-nika-etk3-ch-metall-80x33x59-sm-chernyi-100881457/?c=750000000</t>
   </si>
   <si>
     <t>Друг Кузя растущий стульчик, МДФ, металл, фанера, 47x50x85 см, 101575779</t>
@@ -140,15 +146,6 @@
 9 кг</t>
   </si>
   <si>
-    <t>Этажерка для обуви Nika ЭТК3/Ч металл, 80x33x59 см, черный</t>
-  </si>
-  <si>
-    <t>100881457</t>
-  </si>
-  <si>
-    <t>https://kaspi.kz/shop/p/etazherka-dlja-obuvi-nika-etk3-ch-metall-80x33x59-sm-chernyi-100881457/?c=750000000</t>
-  </si>
-  <si>
     <t>Intex 64757 матрас, насос в комплекте внешний, 191x99x25 см</t>
   </si>
   <si>
@@ -162,6 +159,28 @@
 3 кг</t>
   </si>
   <si>
+    <t>Детский комод Антел Маша 5/800 белый</t>
+  </si>
+  <si>
+    <t>100903940</t>
+  </si>
+  <si>
+    <t>https://kaspi.kz/shop/p/detskii-komod-antel-masha-5-800-belyi-100903940/?c=750000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+45 кг</t>
+  </si>
+  <si>
+    <t>ВДК Love sleeping детская кровать, ЛДСП, белый</t>
+  </si>
+  <si>
+    <t>103475602</t>
+  </si>
+  <si>
+    <t>https://kaspi.kz/shop/p/vdk-love-sleeping-detskaja-krovat-ldsp-belyi-103475602/?c=750000000</t>
+  </si>
+  <si>
     <t>Матрас RALS №50 Optima Standart Steel, 160x200x18 см, чехол поликоттон</t>
   </si>
   <si>
@@ -175,13 +194,22 @@
 120 кг</t>
   </si>
   <si>
-    <t>Alladin Вешалка напольная металл/пластик, 80x170 см, Hp 25-70</t>
-  </si>
-  <si>
-    <t>104692233</t>
-  </si>
-  <si>
-    <t>https://kaspi.kz/shop/p/alladin-veshalka-napol-naja-metall-plastik-80x170-sm-hp-25-70-104692233/?c=750000000</t>
+    <t>Arman Company П36 диван, обивка велюр, 60x285x70 см, серый</t>
+  </si>
+  <si>
+    <t>102085931</t>
+  </si>
+  <si>
+    <t>https://kaspi.kz/shop/p/arman-company-p36-divan-obivka-veljur-60x285x70-sm-seryi-102085931/?c=750000000</t>
+  </si>
+  <si>
+    <t>Спальный гарнитур Grand Miks Бостон 4Д ЛДСП, сп. место 160х200 см</t>
+  </si>
+  <si>
+    <t>102536811</t>
+  </si>
+  <si>
+    <t>https://kaspi.kz/shop/p/spal-nyi-garnitur-grand-miks-boston-4d-ldsp-sp-mesto-160h200-sm-102536811/?c=750000000</t>
   </si>
   <si>
     <t xml:space="preserve">ЗМИ Вешалка напольная металл, 82x150 см, Радуга 1 белое серебро </t>
@@ -210,15 +238,6 @@
 130 кг</t>
   </si>
   <si>
-    <t>Arman Company Комфорт А11 диван, обивка велюр, 60x210x140 см, серый</t>
-  </si>
-  <si>
-    <t>102038809</t>
-  </si>
-  <si>
-    <t>https://kaspi.kz/shop/p/arman-company-komfort-a11-divan-obivka-veljur-60x210x140-sm-seryi-102038809/?c=750000000</t>
-  </si>
-  <si>
     <t>Arman Company Комфорт П36 диван, обивка велюр, 60x210x140 см, серый</t>
   </si>
   <si>
@@ -250,6 +269,15 @@
     <t>https://kaspi.kz/shop/p/taburet-zeta-imp-tv-056116-derevo-45x35x35-sm-100345101/?c=750000000</t>
   </si>
   <si>
+    <t>Arman Company Комфорт А11 диван, обивка велюр, 60x210x140 см, серый</t>
+  </si>
+  <si>
+    <t>102038809</t>
+  </si>
+  <si>
+    <t>https://kaspi.kz/shop/p/arman-company-komfort-a11-divan-obivka-veljur-60x210x140-sm-seryi-102038809/?c=750000000</t>
+  </si>
+  <si>
     <t>Матрас Евро Матрас Medium, 160x200x20 см, чехол вискоза</t>
   </si>
   <si>
@@ -259,35 +287,13 @@
     <t>https://kaspi.kz/shop/p/matras-evro-matras-medium-160x200x20-sm-chehol-viskoza-102561317/?c=750000000</t>
   </si>
   <si>
-    <t>Arman Company П36 диван, обивка велюр, 60x285x70 см, серый</t>
-  </si>
-  <si>
-    <t>102085931</t>
-  </si>
-  <si>
-    <t>https://kaspi.kz/shop/p/arman-company-p36-divan-obivka-veljur-60x285x70-sm-seryi-102085931/?c=750000000</t>
-  </si>
-  <si>
-    <t>Спальный гарнитур Grand Miks Бостон 4Д ЛДСП, сп. место 160х200 см</t>
-  </si>
-  <si>
-    <t>102536811</t>
-  </si>
-  <si>
-    <t>https://kaspi.kz/shop/p/spal-nyi-garnitur-grand-miks-boston-4d-ldsp-sp-mesto-160h200-sm-102536811/?c=750000000</t>
-  </si>
-  <si>
-    <t>Детский комод Антел Маша 5/800 белый</t>
-  </si>
-  <si>
-    <t>100903940</t>
-  </si>
-  <si>
-    <t>https://kaspi.kz/shop/p/detskii-komod-antel-masha-5-800-belyi-100903940/?c=750000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-45 кг</t>
+    <t>Alladin Вешалка напольная металл/пластик, 80x170 см, Hp 25-70</t>
+  </si>
+  <si>
+    <t>104692233</t>
+  </si>
+  <si>
+    <t>https://kaspi.kz/shop/p/alladin-veshalka-napol-naja-metall-plastik-80x170-sm-hp-25-70-104692233/?c=750000000</t>
   </si>
   <si>
     <t xml:space="preserve">ЗМИ Вешалка напольная металл, 89.2x154 см, Радуга 2 </t>
@@ -299,13 +305,31 @@
     <t>https://kaspi.kz/shop/p/zmi-veshalka-napol-naja-metall-89-2x154-sm-raduga-2--100640738/?c=750000000</t>
   </si>
   <si>
-    <t>ВДК Love sleeping детская кровать, ЛДСП, белый</t>
-  </si>
-  <si>
-    <t>103475602</t>
-  </si>
-  <si>
-    <t>https://kaspi.kz/shop/p/vdk-love-sleeping-detskaja-krovat-ldsp-belyi-103475602/?c=750000000</t>
+    <t>Диего Di-555 диван, обивка ткань, 80x190x75, коричневый</t>
+  </si>
+  <si>
+    <t>101193280</t>
+  </si>
+  <si>
+    <t>https://kaspi.kz/shop/p/diego-di-555-divan-obivka-tkan-80x190x75-korichnevyi-101193280/?c=750000000</t>
+  </si>
+  <si>
+    <t>Матрас Cozy Sleep Medium, 160x200x20 см, чехол жаккард</t>
+  </si>
+  <si>
+    <t>100990270</t>
+  </si>
+  <si>
+    <t>https://kaspi.kz/shop/p/matras-cozy-sleep-medium-160x200x20-sm-chehol-zhakkard-100990270/?c=750000000</t>
+  </si>
+  <si>
+    <t>Стул табурет Nika Эконом ТБ2 дерево светло-коричневый</t>
+  </si>
+  <si>
+    <t>100639893</t>
+  </si>
+  <si>
+    <t>https://kaspi.kz/shop/p/stul-taburet-nika-ekonom-tb2-derevo-svetlo-korichnevyi-100639893/?c=750000000</t>
   </si>
   <si>
     <t>Наполнитель пенополистирол oblako-puf.kz объём 60 л, NAP60L</t>
@@ -330,6 +354,15 @@
 6 кг</t>
   </si>
   <si>
+    <t>Intex Deluxe Single-High 64102</t>
+  </si>
+  <si>
+    <t>100067541</t>
+  </si>
+  <si>
+    <t>https://kaspi.kz/shop/p/intex-deluxe-single-high-64102-100067541/?c=750000000</t>
+  </si>
+  <si>
     <t>Atmos Comfort Urban диван, обивка ткань, 80x220x85 см, серый</t>
   </si>
   <si>
@@ -339,13 +372,58 @@
     <t>https://kaspi.kz/shop/p/atmos-comfort-urban-divan-obivka-tkan-80x220x85-sm-seryi-102819845/?c=750000000</t>
   </si>
   <si>
-    <t>Intex Deluxe Single-High 64102</t>
-  </si>
-  <si>
-    <t>100067541</t>
-  </si>
-  <si>
-    <t>https://kaspi.kz/shop/p/intex-deluxe-single-high-64102-100067541/?c=750000000</t>
+    <t>Матрас Bella Mebel Zara , 180x200x19 см, чехол жаккард</t>
+  </si>
+  <si>
+    <t>100730731</t>
+  </si>
+  <si>
+    <t>https://kaspi.kz/shop/p/matras-bella-mebel-zara-180x200x19-sm-chehol-zhakkard-100730731/?c=750000000</t>
+  </si>
+  <si>
+    <t>12 Диванoff lit-1 диван, обивка велюр, 70x400x70 см</t>
+  </si>
+  <si>
+    <t>103718494</t>
+  </si>
+  <si>
+    <t>https://kaspi.kz/shop/p/12-divanoff-lit-1-divan-obivka-veljur-70x400x70-sm-103718494/?c=750000000</t>
+  </si>
+  <si>
+    <t>Intex матрас 64758 синий</t>
+  </si>
+  <si>
+    <t>100386192</t>
+  </si>
+  <si>
+    <t>https://kaspi.kz/shop/p/intex-matras-64758-sinii-100386192/?c=750000000</t>
+  </si>
+  <si>
+    <t>MSQ Тройка диван+2 кресла бежевый голубой</t>
+  </si>
+  <si>
+    <t>103089511</t>
+  </si>
+  <si>
+    <t>https://kaspi.kz/shop/p/msq-troika-divan-2-kresla-bezhevyi-goluboi-103089511/?c=750000000</t>
+  </si>
+  <si>
+    <t>Шкаф Мебель Азии Алекс-125-1, 80x50x200 см, ЛДСП, белый</t>
+  </si>
+  <si>
+    <t>104668049</t>
+  </si>
+  <si>
+    <t>https://kaspi.kz/shop/p/shkaf-mebel-azii-aleks-125-1-80x50x200-sm-ldsp-belyi-104668049/?c=750000000</t>
+  </si>
+  <si>
+    <t>Intex Comfort-Plush 64414NP</t>
+  </si>
+  <si>
+    <t>100067381</t>
+  </si>
+  <si>
+    <t>https://kaspi.kz/shop/p/intex-comfort-plush-64414np-100067381/?c=750000000</t>
   </si>
   <si>
     <t>Стендмебель Квадро 4Д, 160x49.6x220 см, ЛДСП, белый</t>
@@ -357,13 +435,124 @@
     <t>https://kaspi.kz/shop/p/stendmebel-kvadro-4d-160x49-6x220-sm-ldsp-belyi-100132689/?c=750000000</t>
   </si>
   <si>
-    <t>MSQ Тройка диван+2 кресла бежевый голубой</t>
-  </si>
-  <si>
-    <t>103089511</t>
-  </si>
-  <si>
-    <t>https://kaspi.kz/shop/p/msq-troika-divan-2-kresla-bezhevyi-goluboi-103089511/?c=750000000</t>
+    <t>Intex Classic Downy Airbed Dura-Beam Standart 64755 Blue</t>
+  </si>
+  <si>
+    <t>100070443</t>
+  </si>
+  <si>
+    <t>https://kaspi.kz/shop/p/intex-classic-downy-airbed-dura-beam-standart-64755-blue-100070443/?c=750000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+4.7 кг</t>
+  </si>
+  <si>
+    <t>Intex Classic 64765 , насос в комплекте внешний, 203 смx152 смx25 см</t>
+  </si>
+  <si>
+    <t>100067553</t>
+  </si>
+  <si>
+    <t>https://kaspi.kz/shop/p/intex-classic-64765-nasos-v-komplekte-vneshnii-203-smx152-smx25-sm-100067553/?c=750000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Youlite Вешалка напольная металл, 84.5x160 см, YLT-0305 </t>
+  </si>
+  <si>
+    <t>100980942</t>
+  </si>
+  <si>
+    <t>https://kaspi.kz/shop/p/youlite-veshalka-napol-naja-metall-84-5x160-sm-ylt-0305--100980942/?c=750000000</t>
+  </si>
+  <si>
+    <t>Шкаф Лидер классик 180x60x222 см, Скарлет</t>
+  </si>
+  <si>
+    <t>101379712</t>
+  </si>
+  <si>
+    <t>https://kaspi.kz/shop/p/shkaf-lider-klassik-180x60x222-sm-skarlet-101379712/?c=750000000</t>
+  </si>
+  <si>
+    <t>Кровать Comfort Kazakhstan Cm001, 160x200 см, без матраса, синий</t>
+  </si>
+  <si>
+    <t>103184813</t>
+  </si>
+  <si>
+    <t>https://kaspi.kz/shop/p/krovat-comfort-kazakhstan-cm001-160x200-sm-bez-matrasa-sinii-103184813/?c=750000000</t>
+  </si>
+  <si>
+    <t>Этажерка Silver Falcon TW-108, металл, 65x25x162, белый</t>
+  </si>
+  <si>
+    <t>103489212</t>
+  </si>
+  <si>
+    <t>https://kaspi.kz/shop/p/etazherka-silver-falcon-tw-108-metall-65x25x162-belyi-103489212/?c=750000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЗМИ Вешалка напольная металл, 82x150 см, Радуга 1 </t>
+  </si>
+  <si>
+    <t>102840789</t>
+  </si>
+  <si>
+    <t>https://kaspi.kz/shop/p/zmi-veshalka-napol-naja-metall-82x150-sm-raduga-1--102840789/?c=750000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nika Большие Гонки КП2/БГ парта, стул, 60x45x58 см, металл, ЛДСП</t>
+  </si>
+  <si>
+    <t>102448879</t>
+  </si>
+  <si>
+    <t>https://kaspi.kz/shop/p/-nika-bol-shie-gonki-kp2-bg-parta-stul-60x45x58-sm-metall-ldsp-102448879/?c=750000000</t>
+  </si>
+  <si>
+    <t>Intex 64756 с электронасосом 191х76</t>
+  </si>
+  <si>
+    <t>100686912</t>
+  </si>
+  <si>
+    <t>https://kaspi.kz/shop/p/intex-64756-s-elektronasosom-191h76-100686912/?c=750000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+2.7 кг</t>
+  </si>
+  <si>
+    <t>NO.1 Органайзер для стиральной машины</t>
+  </si>
+  <si>
+    <t>102242760</t>
+  </si>
+  <si>
+    <t>https://kaspi.kz/shop/p/no-1-organaizer-dlja-stiral-noi-mashiny-102242760/?c=750000000</t>
+  </si>
+  <si>
+    <t>Nika Эконом ТЭ 2 Серый</t>
+  </si>
+  <si>
+    <t>16700784</t>
+  </si>
+  <si>
+    <t>https://kaspi.kz/shop/p/nika-ekonom-te-2-seryi-16700784/?c=750000000</t>
+  </si>
+  <si>
+    <t>Intex 64142 191х137 с электронасосом</t>
+  </si>
+  <si>
+    <t>100754141</t>
+  </si>
+  <si>
+    <t>https://kaspi.kz/shop/p/intex-64142-191h137-s-elektronasosom-100754141/?c=750000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+4 кг</t>
   </si>
   <si>
     <t>Компьютерное кресло ZETA Ленайс, обивка сетка, мультиколор</t>
@@ -375,148 +564,13 @@
     <t>https://kaspi.kz/shop/p/komp-juternoe-kreslo-zeta-lenais-obivka-setka-mul-tikolor-101259762/?c=750000000</t>
   </si>
   <si>
-    <t>Кровать Comfort Kazakhstan Cm001, 160x200 см, без матраса, синий</t>
-  </si>
-  <si>
-    <t>103184813</t>
-  </si>
-  <si>
-    <t>https://kaspi.kz/shop/p/krovat-comfort-kazakhstan-cm001-160x200-sm-bez-matrasa-sinii-103184813/?c=750000000</t>
-  </si>
-  <si>
-    <t>Этажерка Silver Falcon TW-108, металл, 65x25x162, белый</t>
-  </si>
-  <si>
-    <t>103489212</t>
-  </si>
-  <si>
-    <t>https://kaspi.kz/shop/p/etazherka-silver-falcon-tw-108-metall-65x25x162-belyi-103489212/?c=750000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЗМИ Вешалка напольная металл, 82x150 см, Радуга 1 </t>
-  </si>
-  <si>
-    <t>102840789</t>
-  </si>
-  <si>
-    <t>https://kaspi.kz/shop/p/zmi-veshalka-napol-naja-metall-82x150-sm-raduga-1--102840789/?c=750000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Youlite Вешалка напольная металл, 84.5x160 см, YLT-0305 </t>
-  </si>
-  <si>
-    <t>100980942</t>
-  </si>
-  <si>
-    <t>https://kaspi.kz/shop/p/youlite-veshalka-napol-naja-metall-84-5x160-sm-ylt-0305--100980942/?c=750000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nika Большие Гонки КП2/БГ парта, стул, 60x45x58 см, металл, ЛДСП</t>
-  </si>
-  <si>
-    <t>102448879</t>
-  </si>
-  <si>
-    <t>https://kaspi.kz/shop/p/-nika-bol-shie-gonki-kp2-bg-parta-stul-60x45x58-sm-metall-ldsp-102448879/?c=750000000</t>
-  </si>
-  <si>
-    <t>Диего Di-555 диван, обивка ткань, 80x190x75, коричневый</t>
-  </si>
-  <si>
-    <t>101193280</t>
-  </si>
-  <si>
-    <t>https://kaspi.kz/shop/p/diego-di-555-divan-obivka-tkan-80x190x75-korichnevyi-101193280/?c=750000000</t>
-  </si>
-  <si>
-    <t>Игровое кресло Defender Master красный</t>
-  </si>
-  <si>
-    <t>101299047</t>
-  </si>
-  <si>
-    <t>https://kaspi.kz/shop/p/igrovoe-kreslo-defender-master-krasnyi-101299047/?c=750000000</t>
-  </si>
-  <si>
-    <t>Комод IKEA Мальм 30403585, 160x48x78 см, ДСП, белый</t>
-  </si>
-  <si>
-    <t>100934984</t>
-  </si>
-  <si>
-    <t>https://kaspi.kz/shop/p/komod-ikea-mal-m-30403585-160x48x78-sm-dsp-belyi-100934984/?c=750000000</t>
-  </si>
-  <si>
-    <t>Шкаф Мебель Азии Алекс-125-1, 80x50x200 см, ЛДСП, белый</t>
-  </si>
-  <si>
-    <t>104668049</t>
-  </si>
-  <si>
-    <t>https://kaspi.kz/shop/p/shkaf-mebel-azii-aleks-125-1-80x50x200-sm-ldsp-belyi-104668049/?c=750000000</t>
-  </si>
-  <si>
-    <t>Nika Эконом ТЭ 2 Серый</t>
-  </si>
-  <si>
-    <t>16700784</t>
-  </si>
-  <si>
-    <t>https://kaspi.kz/shop/p/nika-ekonom-te-2-seryi-16700784/?c=750000000</t>
-  </si>
-  <si>
-    <t>LIDER Стелла ЛДСП белый</t>
-  </si>
-  <si>
-    <t>100152846</t>
-  </si>
-  <si>
-    <t>https://kaspi.kz/shop/p/lider-stella-ldsp-belyi-100152846/?c=750000000</t>
-  </si>
-  <si>
-    <t>NO.1 Органайзер для стиральной машины</t>
-  </si>
-  <si>
-    <t>102242760</t>
-  </si>
-  <si>
-    <t>https://kaspi.kz/shop/p/no-1-organaizer-dlja-stiral-noi-mashiny-102242760/?c=750000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Youlite Вешалка напольная металл, 150x160 см, YLT-0329 </t>
-  </si>
-  <si>
-    <t>100981126</t>
-  </si>
-  <si>
-    <t>https://kaspi.kz/shop/p/youlite-veshalka-napol-naja-metall-150x160-sm-ylt-0329--100981126/?c=750000000</t>
-  </si>
-  <si>
-    <t>Intex Classic 64765 , насос в комплекте внешний, 203 смx152 смx25 см</t>
-  </si>
-  <si>
-    <t>100067553</t>
-  </si>
-  <si>
-    <t>https://kaspi.kz/shop/p/intex-classic-64765-nasos-v-komplekte-vneshnii-203-smx152-smx25-sm-100067553/?c=750000000</t>
-  </si>
-  <si>
-    <t>IKEA Фридлев 30457903 ДСП, 66 смx29 смx129 см, белый</t>
-  </si>
-  <si>
-    <t>100105242</t>
-  </si>
-  <si>
-    <t>https://kaspi.kz/shop/p/ikea-fridlev-30457903-dsp-66-smx29-smx129-sm-belyi-100105242/?c=750000000</t>
-  </si>
-  <si>
-    <t>Шкаф Лидер классик 180x60x222 см, Скарлет</t>
-  </si>
-  <si>
-    <t>101379712</t>
-  </si>
-  <si>
-    <t>https://kaspi.kz/shop/p/shkaf-lider-klassik-180x60x222-sm-skarlet-101379712/?c=750000000</t>
+    <t>Intex 64143 матрас, насос в комплекте внешний, 203x152x25 см</t>
+  </si>
+  <si>
+    <t>100754129</t>
+  </si>
+  <si>
+    <t>https://kaspi.kz/shop/p/intex-64143-matras-nasos-v-komplekte-vneshnii-203x152x25-sm-100754129/?c=750000000</t>
   </si>
   <si>
     <t xml:space="preserve">Обеденный стол Казахстан 300x100x78 см, ЛДСП, металл, 102006367 </t>
@@ -532,118 +586,179 @@
 35 кг</t>
   </si>
   <si>
-    <t>Intex 64756 с электронасосом 191х76</t>
-  </si>
-  <si>
-    <t>100686912</t>
-  </si>
-  <si>
-    <t>https://kaspi.kz/shop/p/intex-64756-s-elektronasosom-191h76-100686912/?c=750000000</t>
+    <t xml:space="preserve">Youlite Вешалка напольная металл, 150x160 см, YLT-0329 </t>
+  </si>
+  <si>
+    <t>100981126</t>
+  </si>
+  <si>
+    <t>https://kaspi.kz/shop/p/youlite-veshalka-napol-naja-metall-150x160-sm-ylt-0329--100981126/?c=750000000</t>
+  </si>
+  <si>
+    <t>Игровое кресло Defender Master красный</t>
+  </si>
+  <si>
+    <t>101299047</t>
+  </si>
+  <si>
+    <t>https://kaspi.kz/shop/p/igrovoe-kreslo-defender-master-krasnyi-101299047/?c=750000000</t>
+  </si>
+  <si>
+    <t>Комод IKEA Мальм 30403585, 160x48x78 см, ДСП, белый</t>
+  </si>
+  <si>
+    <t>100934984</t>
+  </si>
+  <si>
+    <t>https://kaspi.kz/shop/p/komod-ikea-mal-m-30403585-160x48x78-sm-dsp-belyi-100934984/?c=750000000</t>
+  </si>
+  <si>
+    <t>IKEA Фридлев 30457903 ДСП, 66 смx29 смx129 см, белый</t>
+  </si>
+  <si>
+    <t>100105242</t>
+  </si>
+  <si>
+    <t>https://kaspi.kz/shop/p/ikea-fridlev-30457903-dsp-66-smx29-smx129-sm-belyi-100105242/?c=750000000</t>
+  </si>
+  <si>
+    <t>LIDER Стелла ЛДСП белый</t>
+  </si>
+  <si>
+    <t>100152846</t>
+  </si>
+  <si>
+    <t>https://kaspi.kz/shop/p/lider-stella-ldsp-belyi-100152846/?c=750000000</t>
+  </si>
+  <si>
+    <t>Обеденный стол Levin 120x80x75 см, ЛДСП, дерево, Виконт</t>
+  </si>
+  <si>
+    <t>100256292</t>
+  </si>
+  <si>
+    <t>https://kaspi.kz/shop/p/obedennyi-stol-levin-120x80x75-sm-ldsp-derevo-vikont-100256292/?c=750000000</t>
+  </si>
+  <si>
+    <t>Шкаф LIDER CLASSIC 186.4x53.5x221 см, Беллона 4Д</t>
+  </si>
+  <si>
+    <t>102676572</t>
+  </si>
+  <si>
+    <t>https://kaspi.kz/shop/p/shkaf-lider-classic-186-4x53-5x221-sm-bellona-4d-102676572/?c=750000000</t>
+  </si>
+  <si>
+    <t>Гербор SFB3K , ЛДСП, 69.5 смx17.5 смx120 см, белый, бежевый</t>
+  </si>
+  <si>
+    <t>38900065</t>
+  </si>
+  <si>
+    <t>https://kaspi.kz/shop/p/gerbor-sfb3k-ldsp-69-5-smx17-5-smx120-sm-belyi-bezhevyi-38900065/?c=750000000</t>
+  </si>
+  <si>
+    <t>MSQ диван + 2 кресла бежевый</t>
+  </si>
+  <si>
+    <t>103089943</t>
+  </si>
+  <si>
+    <t>https://kaspi.kz/shop/p/msq-divan-2-kresla-bezhevyi-103089943/?c=750000000</t>
+  </si>
+  <si>
+    <t>Intex DURA-BEAM SERIES CLASSIC DOWNY 152х203х25см +2 подушки+насос 64765</t>
+  </si>
+  <si>
+    <t>103047625</t>
+  </si>
+  <si>
+    <t>https://kaspi.kz/shop/p/intex-dura-beam-series-classic-downy-152h203h25sm-2-podushki-nasos-64765-103047625/?c=750000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Плюшевая радость Принцесса розовый диван, кресло, обивка текстиль, 50x50x40 см </t>
+  </si>
+  <si>
+    <t>102692389</t>
+  </si>
+  <si>
+    <t>https://kaspi.kz/shop/p/pljushevaja-radost-printsessa-rozovyi-divan-kreslo-obivka-tekstil-50x50x40-sm--102692389/?c=750000000</t>
   </si>
   <si>
     <t xml:space="preserve">
-2.7 кг</t>
-  </si>
-  <si>
-    <t>12 Диванoff lit-1 диван, обивка велюр, 70x400x70 см</t>
-  </si>
-  <si>
-    <t>103718494</t>
-  </si>
-  <si>
-    <t>https://kaspi.kz/shop/p/12-divanoff-lit-1-divan-obivka-veljur-70x400x70-sm-103718494/?c=750000000</t>
-  </si>
-  <si>
-    <t>Intex 64143 матрас, насос в комплекте внешний, 203x152x25 см</t>
-  </si>
-  <si>
-    <t>100754129</t>
-  </si>
-  <si>
-    <t>https://kaspi.kz/shop/p/intex-64143-matras-nasos-v-komplekte-vneshnii-203x152x25-sm-100754129/?c=750000000</t>
-  </si>
-  <si>
-    <t>Матрас Cozy Sleep Medium, 160x200x20 см, чехол жаккард</t>
-  </si>
-  <si>
-    <t>100990270</t>
-  </si>
-  <si>
-    <t>https://kaspi.kz/shop/p/matras-cozy-sleep-medium-160x200x20-sm-chehol-zhakkard-100990270/?c=750000000</t>
-  </si>
-  <si>
-    <t>Intex 64142 191х137 с электронасосом</t>
-  </si>
-  <si>
-    <t>100754141</t>
-  </si>
-  <si>
-    <t>https://kaspi.kz/shop/p/intex-64142-191h137-s-elektronasosom-100754141/?c=750000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-4 кг</t>
-  </si>
-  <si>
-    <t>Intex Classic Downy Airbed Dura-Beam Standart 64755 Blue</t>
-  </si>
-  <si>
-    <t>100070443</t>
-  </si>
-  <si>
-    <t>https://kaspi.kz/shop/p/intex-classic-downy-airbed-dura-beam-standart-64755-blue-100070443/?c=750000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-4.7 кг</t>
-  </si>
-  <si>
-    <t>Стул табурет Nika Эконом ТБ2 дерево светло-коричневый</t>
-  </si>
-  <si>
-    <t>100639893</t>
-  </si>
-  <si>
-    <t>https://kaspi.kz/shop/p/stul-taburet-nika-ekonom-tb2-derevo-svetlo-korichnevyi-100639893/?c=750000000</t>
-  </si>
-  <si>
-    <t>Intex Comfort-Plush 64414NP</t>
-  </si>
-  <si>
-    <t>100067381</t>
-  </si>
-  <si>
-    <t>https://kaspi.kz/shop/p/intex-comfort-plush-64414np-100067381/?c=750000000</t>
-  </si>
-  <si>
-    <t>Матрас Bella Mebel Zara , 180x200x19 см, чехол жаккард</t>
-  </si>
-  <si>
-    <t>100730731</t>
-  </si>
-  <si>
-    <t>https://kaspi.kz/shop/p/matras-bella-mebel-zara-180x200x19-sm-chehol-zhakkard-100730731/?c=750000000</t>
-  </si>
-  <si>
-    <t>Intex матрас 64758 синий</t>
-  </si>
-  <si>
-    <t>100386192</t>
-  </si>
-  <si>
-    <t>https://kaspi.kz/shop/p/intex-matras-64758-sinii-100386192/?c=750000000</t>
-  </si>
-  <si>
-    <t>FA-ORION НФ-00000226 1 шт, металл</t>
-  </si>
-  <si>
-    <t>105017856</t>
-  </si>
-  <si>
-    <t>https://kaspi.kz/shop/p/fa-orion-nf-00000226-1-sht-metall-105017856/?c=750000000</t>
-  </si>
-  <si>
-    <t>2022-06-14T14:30:22.835Z</t>
+2 кг</t>
+  </si>
+  <si>
+    <t>Туалетный столик Birles VZ-25-11-1700-1000 100x37x170 см, ЛДСП</t>
+  </si>
+  <si>
+    <t>103542054</t>
+  </si>
+  <si>
+    <t>https://kaspi.kz/shop/p/tualetnyi-stolik-birles-vz-25-11-1700-1000-100x37x170-sm-ldsp-103542054/?c=750000000</t>
+  </si>
+  <si>
+    <t>F-line штанга 102722750, металл</t>
+  </si>
+  <si>
+    <t>102722750</t>
+  </si>
+  <si>
+    <t>https://kaspi.kz/shop/p/f-line-shtanga-102722750-metall-102722750/?c=750000000</t>
+  </si>
+  <si>
+    <t>ROOM MEBEL 123456789 диван, обивка ткань, 85x280x70 см</t>
+  </si>
+  <si>
+    <t>103557518</t>
+  </si>
+  <si>
+    <t>https://kaspi.kz/shop/p/room-mebel-123456789-divan-obivka-tkan-85x280x70-sm-103557518/?c=750000000</t>
+  </si>
+  <si>
+    <t>Матрас Евро Матрас Vip, 180x200x20 см, чехол жаккард</t>
+  </si>
+  <si>
+    <t>102561321</t>
+  </si>
+  <si>
+    <t>https://kaspi.kz/shop/p/matras-evro-matras-vip-180x200x20-sm-chehol-zhakkard-102561321/?c=750000000</t>
+  </si>
+  <si>
+    <t>Стул классический В Дом и Сад Рим 1332378511, дерево, 97x41x45 см</t>
+  </si>
+  <si>
+    <t>104324743</t>
+  </si>
+  <si>
+    <t>https://kaspi.kz/shop/p/stul-klassicheskii-v-dom-i-sad-rim-1332378511-derevo-97x41x45-sm-104324743/?c=750000000</t>
+  </si>
+  <si>
+    <t>Шкаф Мебель Азии Алекс-125, 70x50x200 см, ЛДСП, белый</t>
+  </si>
+  <si>
+    <t>104668054</t>
+  </si>
+  <si>
+    <t>https://kaspi.kz/shop/p/shkaf-mebel-azii-aleks-125-70x50x200-sm-ldsp-belyi-104668054/?c=750000000</t>
+  </si>
+  <si>
+    <t>Irismebel K900800 80x40x90 см</t>
+  </si>
+  <si>
+    <t>104293176</t>
+  </si>
+  <si>
+    <t>https://kaspi.kz/shop/p/irismebel-k900800-80x40x90-sm-104293176/?c=750000000</t>
+  </si>
+  <si>
+    <t>Шкаф Мебель Азии Медина 2Д , 120.2x60x221.6 см, ЛДСП, белый</t>
+  </si>
+  <si>
+    <t>104603494</t>
+  </si>
+  <si>
+    <t>https://kaspi.kz/shop/p/shkaf-mebel-azii-medina-2d-120-2x60x221-6-sm-ldsp-belyi-104603494/?c=750000000</t>
   </si>
   <si>
     <t>Просто Мебель PVL навесная белая</t>
@@ -668,24 +783,6 @@
     <t>https://kaspi.kz/shop/p/mebel-chanse-m11-6952049-divan-obivka-tkan-80x190x78-sm-sinii-103462944/?c=750000000</t>
   </si>
   <si>
-    <t>Все Стулья.KZ EAMES DSW, 80x80x75 см, МДФ, белый</t>
-  </si>
-  <si>
-    <t>100189409</t>
-  </si>
-  <si>
-    <t>https://kaspi.kz/shop/p/vse-stul-ja-kz-eames-dsw-80x80x75-sm-mdf-belyi-100189409/?c=750000000</t>
-  </si>
-  <si>
-    <t>Все Стулья.KZ EAMES DSW 100, 100x100x75 см, МДФ, белый</t>
-  </si>
-  <si>
-    <t>100189406</t>
-  </si>
-  <si>
-    <t>https://kaspi.kz/shop/p/vse-stul-ja-kz-eames-dsw-100-100x100x75-sm-mdf-belyi-100189406/?c=750000000</t>
-  </si>
-  <si>
     <t>Матрас RALS №55 Shato Optima, 160x200x13 см, чехол поликоттон</t>
   </si>
   <si>
@@ -702,15 +799,6 @@
   </si>
   <si>
     <t>https://kaspi.kz/shop/p/obedennyi-stol-ip-mereke-400x100x76-sm-ldsp-stol-transformer-4m-ldsp-103383345/?c=750000000</t>
-  </si>
-  <si>
-    <t>Barneo N-12-2 Sephi PU белый</t>
-  </si>
-  <si>
-    <t>16700479</t>
-  </si>
-  <si>
-    <t>https://kaspi.kz/shop/p/barneo-n-12-2-sephi-pu-belyi-16700479/?c=750000000</t>
   </si>
   <si>
     <t>Детский комод Антел Комод Ариель</t>
@@ -753,24 +841,6 @@
     <t>https://kaspi.kz/shop/p/avtomobil-nyi-matras-smart-autobed-m1-125h175-chernyi-102137241/?c=750000000</t>
   </si>
   <si>
-    <t>Intex 64755 с электронасосом</t>
-  </si>
-  <si>
-    <t>100183228</t>
-  </si>
-  <si>
-    <t>https://kaspi.kz/shop/p/intex-64755-s-elektronasosom-100183228/?c=750000000</t>
-  </si>
-  <si>
-    <t>SK Trade Eames DSW серый</t>
-  </si>
-  <si>
-    <t>101167474</t>
-  </si>
-  <si>
-    <t>https://kaspi.kz/shop/p/sk-trade-eames-dsw-seryi-101167474/?c=750000000</t>
-  </si>
-  <si>
     <t>Мебельный салон KUANYSH Сарыагаш 97x41x45 см белый</t>
   </si>
   <si>
@@ -798,6 +868,132 @@
     <t>https://kaspi.kz/shop/p/arman-company-komfort-divan-obivka-veljur-60x285x75-sm-seryi-101871663/?c=750000000</t>
   </si>
   <si>
+    <t>Mizam 8902058 50x220x130 см</t>
+  </si>
+  <si>
+    <t>104172978</t>
+  </si>
+  <si>
+    <t>https://kaspi.kz/shop/p/mizam-8902058-50x220x130-sm-104172978/?c=750000000</t>
+  </si>
+  <si>
+    <t>Canyon Deimos CND-SGCH4, обивка искусственная кожа, черный</t>
+  </si>
+  <si>
+    <t>17800395</t>
+  </si>
+  <si>
+    <t>https://kaspi.kz/shop/p/canyon-deimos-cnd-sgch4-obivka-iskusstvennaja-kozha-chernyi-17800395/?c=750000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Обеденный стол Your Queen 300x99x76 см, ЛДСП, трансформер 3.0 </t>
+  </si>
+  <si>
+    <t>102816763</t>
+  </si>
+  <si>
+    <t>https://kaspi.kz/shop/p/obedennyi-stol-your-queen-300x99x76-sm-ldsp-transformer-3-0--102816763/?c=750000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Youlite Вешалка напольная металл, 149x160 см, YLT-0327 </t>
+  </si>
+  <si>
+    <t>100980868</t>
+  </si>
+  <si>
+    <t>https://kaspi.kz/shop/p/youlite-veshalka-napol-naja-metall-149x160-sm-ylt-0327--100980868/?c=750000000</t>
+  </si>
+  <si>
+    <t>Шкаф Грандмикс  135x45x205 см, Атлант 3Д</t>
+  </si>
+  <si>
+    <t>100945692</t>
+  </si>
+  <si>
+    <t>https://kaspi.kz/shop/p/shkaf-grandmiks-135x45x205-sm-atlant-3d-100945692/?c=750000000</t>
+  </si>
+  <si>
+    <t>Шкаф LIDER Беллона 6Д, 276.4x53.5x222 см, МДФ, ЛДСП, белый, коричневый</t>
+  </si>
+  <si>
+    <t>101035774</t>
+  </si>
+  <si>
+    <t>https://kaspi.kz/shop/p/shkaf-lider-bellona-6d-276-4x53-5x222-sm-mdf-ldsp-belyi-korichnevyi-101035774/?c=750000000</t>
+  </si>
+  <si>
+    <t>Мебель Азии Авила</t>
+  </si>
+  <si>
+    <t>101790588</t>
+  </si>
+  <si>
+    <t>https://kaspi.kz/shop/p/mebel-azii-avila-101790588/?c=750000000</t>
+  </si>
+  <si>
+    <t>Шкаф Grand Miks Венеция ЛДСП, 200x38x205 см</t>
+  </si>
+  <si>
+    <t>100723115</t>
+  </si>
+  <si>
+    <t>https://kaspi.kz/shop/p/shkaf-grand-miks-venetsija-ldsp-200x38x205-sm-100723115/?c=750000000</t>
+  </si>
+  <si>
+    <t>IKEA Адде 10359791, металл, 77 смx39 смx47 см, белый</t>
+  </si>
+  <si>
+    <t>16700532</t>
+  </si>
+  <si>
+    <t>https://kaspi.kz/shop/p/ikea-adde-10359791-metall-77-smx39-smx47-sm-belyi-16700532/?c=750000000</t>
+  </si>
+  <si>
+    <t>Полка IZI Кухня ЛДСП, 80x16.5x70 см, 000116</t>
+  </si>
+  <si>
+    <t>104180003</t>
+  </si>
+  <si>
+    <t>https://kaspi.kz/shop/p/polka-izi-kuhnja-ldsp-80x16-5x70-sm-000116-104180003/?c=750000000</t>
+  </si>
+  <si>
+    <t>ROOM MEBEL Тахта изгиб 3М 16 белый голубой</t>
+  </si>
+  <si>
+    <t>101736891</t>
+  </si>
+  <si>
+    <t>https://kaspi.kz/shop/p/room-mebel-tahta-izgib-3m-16-belyi-goluboi-101736891/?c=750000000</t>
+  </si>
+  <si>
+    <t>Grand Miks Парус, ЛДСП</t>
+  </si>
+  <si>
+    <t>100133498</t>
+  </si>
+  <si>
+    <t>https://kaspi.kz/shop/p/grand-miks-parus-ldsp-100133498/?c=750000000</t>
+  </si>
+  <si>
+    <t>Этажерка для обуви ЗМИ ПДО 240 металл, 45x30x95 см</t>
+  </si>
+  <si>
+    <t>101669729</t>
+  </si>
+  <si>
+    <t>https://kaspi.kz/shop/p/etazherka-dlja-obuvi-zmi-pdo-240-metall-45x30x95-sm-101669729/?c=750000000</t>
+  </si>
+  <si>
+    <t>Шкаф Grand Miks Турин 00000001_00000002, 135x50x220, ЛДСП, белый</t>
+  </si>
+  <si>
+    <t>104943967</t>
+  </si>
+  <si>
+    <t>https://kaspi.kz/shop/p/shkaf-grand-miks-turin-00000001-00000002-135x50x220-ldsp-belyi-104943967/?c=750000000</t>
+  </si>
+  <si>
     <t>Комфорт диван, обивка рогожка, 85x185x68, серый</t>
   </si>
   <si>
@@ -807,19 +1003,6 @@
     <t>https://kaspi.kz/shop/p/komfort-divan-obivka-rogozhka-85x185x68-seryi-102617030/?c=750000000</t>
   </si>
   <si>
-    <t>Smart bed А1 черный</t>
-  </si>
-  <si>
-    <t>101854249</t>
-  </si>
-  <si>
-    <t>https://kaspi.kz/shop/p/smart-bed-a1-chernyi-101854249/?c=750000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-2 кг</t>
-  </si>
-  <si>
     <t>Обеденный стол SKT Standart, 300x100x78, ЛДСП, белый</t>
   </si>
   <si>
@@ -827,211 +1010,6 @@
   </si>
   <si>
     <t>https://kaspi.kz/shop/p/obedennyi-stol-skt-standart-300x100x78-ldsp-belyi-101264942/?c=750000000</t>
-  </si>
-  <si>
-    <t>Матрас IKEA Оготнес 20480862, 90x200x10 см, чехол полиэстер</t>
-  </si>
-  <si>
-    <t>102597799</t>
-  </si>
-  <si>
-    <t>https://kaspi.kz/shop/p/matras-ikea-ogotnes-20480862-90x200x10-sm-chehol-poliester-102597799/?c=750000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Комод IKEA 62x30x70 см, дерево, Раст 90368616 </t>
-  </si>
-  <si>
-    <t>100794179</t>
-  </si>
-  <si>
-    <t>https://kaspi.kz/shop/p/komod-ikea-62x30x70-sm-derevo-rast-90368616--100794179/?c=750000000</t>
-  </si>
-  <si>
-    <t>Decathlon Quechua Air Basic 8561145</t>
-  </si>
-  <si>
-    <t>100168034</t>
-  </si>
-  <si>
-    <t>https://kaspi.kz/shop/p/decathlon-quechua-air-basic-8561145-100168034/?c=750000000</t>
-  </si>
-  <si>
-    <t>ARIBA Камелот 3Ф диван, обивка ткань, 90x250x115 см, коричневый, красный</t>
-  </si>
-  <si>
-    <t>100692315</t>
-  </si>
-  <si>
-    <t>https://kaspi.kz/shop/p/ariba-kamelot-3f-divan-obivka-tkan-90x250x115-sm-korichnevyi-krasnyi-100692315/?c=750000000</t>
-  </si>
-  <si>
-    <t>Baby soft подростковый ортопедический YOUNG 160х80 см</t>
-  </si>
-  <si>
-    <t>101728125</t>
-  </si>
-  <si>
-    <t>https://kaspi.kz/shop/p/baby-soft-podrostkovyi-ortopedicheskii-young-160h80-sm-101728125/?c=750000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-7</t>
-  </si>
-  <si>
-    <t>Comfort Blue диван, обивка рогожка, 85x185x70 см, синий</t>
-  </si>
-  <si>
-    <t>101826172</t>
-  </si>
-  <si>
-    <t>https://kaspi.kz/shop/p/comfort-blue-divan-obivka-rogozhka-85x185x70-sm-sinii-101826172/?c=750000000</t>
-  </si>
-  <si>
-    <t>Mizam 8902058 50x220x130 см</t>
-  </si>
-  <si>
-    <t>104172978</t>
-  </si>
-  <si>
-    <t>https://kaspi.kz/shop/p/mizam-8902058-50x220x130-sm-104172978/?c=750000000</t>
-  </si>
-  <si>
-    <t>Детский комод TOMIX Oliver TM-3</t>
-  </si>
-  <si>
-    <t>102251634</t>
-  </si>
-  <si>
-    <t>https://kaspi.kz/shop/p/detskii-komod-tomix-oliver-tm-3-102251634/?c=750000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-42 кг</t>
-  </si>
-  <si>
-    <t>Стендмебель Дели 4 1Я Белый</t>
-  </si>
-  <si>
-    <t>100127741</t>
-  </si>
-  <si>
-    <t>https://kaspi.kz/shop/p/stendmebel-deli-4-1ja-belyi-100127741/?c=750000000</t>
-  </si>
-  <si>
-    <t>Premium Rosa 160х200</t>
-  </si>
-  <si>
-    <t>102808532</t>
-  </si>
-  <si>
-    <t>https://kaspi.kz/shop/p/premium-rosa-160h200-102808532/?c=750000000</t>
-  </si>
-  <si>
-    <t>Letostore Sofia Paris диван, обивка велюр, 80x210x80 см, мультиколор</t>
-  </si>
-  <si>
-    <t>102168303</t>
-  </si>
-  <si>
-    <t>https://kaspi.kz/shop/p/letostore-sofia-paris-divan-obivka-veljur-80x210x80-sm-mul-tikolor-102168303/?c=750000000</t>
-  </si>
-  <si>
-    <t>Компьютерное кресло ZETA Strike Turbo, обивка экокожа, мультиколор</t>
-  </si>
-  <si>
-    <t>101060226</t>
-  </si>
-  <si>
-    <t>https://kaspi.kz/shop/p/komp-juternoe-kreslo-zeta-strike-turbo-obivka-ekokozha-mul-tikolor-101060226/?c=750000000</t>
-  </si>
-  <si>
-    <t>Компьютерное кресло ZETA Гермес, обивка гобелен, серый</t>
-  </si>
-  <si>
-    <t>101065129</t>
-  </si>
-  <si>
-    <t>https://kaspi.kz/shop/p/komp-juternoe-kreslo-zeta-germes-obivka-gobelen-seryi-101065129/?c=750000000</t>
-  </si>
-  <si>
-    <t>ZETA Ми-6 , обивка текстиль, черный</t>
-  </si>
-  <si>
-    <t>17800202</t>
-  </si>
-  <si>
-    <t>https://kaspi.kz/shop/p/zeta-mi-6-obivka-tekstil-chernyi-17800202/?c=750000000</t>
-  </si>
-  <si>
-    <t>ROOM MEBEL Тахта изгиб 3М 16 белый голубой</t>
-  </si>
-  <si>
-    <t>101736891</t>
-  </si>
-  <si>
-    <t>https://kaspi.kz/shop/p/room-mebel-tahta-izgib-3m-16-belyi-goluboi-101736891/?c=750000000</t>
-  </si>
-  <si>
-    <t>Обеденный стол Bella Turkey 863-2 фиолетовый</t>
-  </si>
-  <si>
-    <t>102960552</t>
-  </si>
-  <si>
-    <t>https://kaspi.kz/shop/p/obedennyi-stol-bella-turkey-863-2-fioletovyi-102960552/?c=750000000</t>
-  </si>
-  <si>
-    <t>oblako-puf.kz Груша плащёвка светло-серый</t>
-  </si>
-  <si>
-    <t>102819914</t>
-  </si>
-  <si>
-    <t>https://kaspi.kz/shop/p/oblako-puf-kz-grusha-plaschjovka-svetlo-seryi-102819914/?c=750000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-5 кг</t>
-  </si>
-  <si>
-    <t>Кресло-мешок oblako-puf.kz Груша , чехол оксфорд, 90x30x130 см</t>
-  </si>
-  <si>
-    <t>101023596</t>
-  </si>
-  <si>
-    <t>https://kaspi.kz/shop/p/kreslo-meshok-oblako-puf-kz-grusha-chehol-oksford-90x30x130-sm-101023596/?c=750000000</t>
-  </si>
-  <si>
-    <t>Антел Северянка-3 кровать трансформер, дерево, МДФ, белый</t>
-  </si>
-  <si>
-    <t>100829323</t>
-  </si>
-  <si>
-    <t>https://kaspi.kz/shop/p/antel-severjanka-3-krovat-transformer-derevo-mdf-belyi-100829323/?c=750000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-30 кг</t>
-  </si>
-  <si>
-    <t>Матрас RALS №4 EcoCoconut, 180x200x20 см, чехол вискоза</t>
-  </si>
-  <si>
-    <t>101093813</t>
-  </si>
-  <si>
-    <t>https://kaspi.kz/shop/p/matras-rals-4-ecococonut-180x200x20-sm-chehol-viskoza-101093813/?c=750000000</t>
-  </si>
-  <si>
-    <t>Матрас Cozy Sleep Mix Cocos, 140x200x20 см, чехол жаккард</t>
-  </si>
-  <si>
-    <t>100832935</t>
-  </si>
-  <si>
-    <t>https://kaspi.kz/shop/p/matras-cozy-sleep-mix-cocos-140x200x20-sm-chehol-zhakkard-100832935/?c=750000000</t>
   </si>
 </sst>
 </file>
@@ -1547,13 +1525,13 @@
         <v>25</v>
       </c>
       <c r="C6">
-        <v>943500</v>
+        <v>163020</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>18500</v>
+        <v>2860</v>
       </c>
       <c r="F6" t="s">
         <v>23</v>
@@ -1570,13 +1548,13 @@
         <v>28</v>
       </c>
       <c r="C7">
-        <v>163020</v>
+        <v>984300</v>
       </c>
       <c r="D7" t="s">
         <v>29</v>
       </c>
       <c r="E7">
-        <v>2860</v>
+        <v>19300</v>
       </c>
       <c r="F7" t="s">
         <v>23</v>
@@ -1628,283 +1606,283 @@
         <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
         <v>37</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10">
+        <v>373956</v>
+      </c>
+      <c r="D10" t="s">
         <v>38</v>
       </c>
-      <c r="C10">
-        <v>1449000</v>
-      </c>
-      <c r="D10" t="s">
-        <v>39</v>
-      </c>
       <c r="E10">
-        <v>34500</v>
+        <v>8499</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11">
+        <v>1449000</v>
+      </c>
+      <c r="D11" t="s">
         <v>41</v>
       </c>
-      <c r="B11" t="s">
+      <c r="E11">
+        <v>34500</v>
+      </c>
+      <c r="F11" t="s">
         <v>42</v>
       </c>
-      <c r="C11">
-        <v>373956</v>
-      </c>
-      <c r="D11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11">
-        <v>8499</v>
-      </c>
-      <c r="F11" t="s">
-        <v>23</v>
-      </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
         <v>44</v>
-      </c>
-      <c r="B12" t="s">
-        <v>45</v>
       </c>
       <c r="C12">
         <v>479269</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E12">
         <v>9781</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
         <v>48</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13">
+        <v>1391280</v>
+      </c>
+      <c r="D13" t="s">
         <v>49</v>
       </c>
-      <c r="C13">
-        <v>1618500</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13">
+        <v>44880</v>
+      </c>
+      <c r="F13" t="s">
         <v>50</v>
       </c>
-      <c r="E13">
-        <v>41500</v>
-      </c>
-      <c r="F13" t="s">
-        <v>51</v>
-      </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" t="s">
         <v>52</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14">
+        <v>1627200</v>
+      </c>
+      <c r="D14" t="s">
         <v>53</v>
       </c>
-      <c r="C14">
-        <v>412393</v>
-      </c>
-      <c r="D14" t="s">
-        <v>54</v>
-      </c>
       <c r="E14">
-        <v>13303</v>
+        <v>50850</v>
       </c>
       <c r="F14" t="s">
         <v>23</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
         <v>55</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15">
+        <v>1618500</v>
+      </c>
+      <c r="D15" t="s">
         <v>56</v>
       </c>
-      <c r="C15">
-        <v>365800</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E15">
+        <v>41500</v>
+      </c>
+      <c r="F15" t="s">
         <v>57</v>
       </c>
-      <c r="E15">
-        <v>11800</v>
-      </c>
-      <c r="F15" t="s">
-        <v>58</v>
-      </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" t="s">
         <v>59</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16">
+        <v>3372087</v>
+      </c>
+      <c r="D16" t="s">
         <v>60</v>
       </c>
-      <c r="C16">
-        <v>3163500</v>
-      </c>
-      <c r="D16" t="s">
-        <v>61</v>
-      </c>
       <c r="E16">
-        <v>85500</v>
+        <v>108777</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17">
+        <v>7195440</v>
+      </c>
+      <c r="D17" t="s">
         <v>63</v>
       </c>
-      <c r="B17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17">
-        <v>2432360</v>
-      </c>
-      <c r="D17" t="s">
-        <v>65</v>
-      </c>
       <c r="E17">
-        <v>71540</v>
+        <v>239848</v>
       </c>
       <c r="F17" t="s">
         <v>23</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18">
+        <v>365800</v>
+      </c>
+      <c r="D18" t="s">
         <v>66</v>
       </c>
-      <c r="B18" t="s">
+      <c r="E18">
+        <v>11800</v>
+      </c>
+      <c r="F18" t="s">
         <v>67</v>
       </c>
-      <c r="C18">
-        <v>1887000</v>
-      </c>
-      <c r="D18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18">
-        <v>62900</v>
-      </c>
-      <c r="F18" t="s">
-        <v>23</v>
-      </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" t="s">
         <v>69</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19">
+        <v>3163500</v>
+      </c>
+      <c r="D19" t="s">
         <v>70</v>
       </c>
-      <c r="C19">
-        <v>1659460</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19">
+        <v>85500</v>
+      </c>
+      <c r="F19" t="s">
         <v>71</v>
       </c>
-      <c r="E19">
-        <v>43670</v>
-      </c>
-      <c r="F19" t="s">
-        <v>72</v>
-      </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" t="s">
         <v>73</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20">
+        <v>1887000</v>
+      </c>
+      <c r="D20" t="s">
         <v>74</v>
       </c>
-      <c r="C20">
-        <v>136800</v>
-      </c>
-      <c r="D20" t="s">
-        <v>75</v>
-      </c>
       <c r="E20">
-        <v>3800</v>
+        <v>62900</v>
       </c>
       <c r="F20" t="s">
         <v>23</v>
       </c>
       <c r="G20" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" t="s">
         <v>76</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21">
+        <v>1659460</v>
+      </c>
+      <c r="D21" t="s">
         <v>77</v>
       </c>
-      <c r="C21">
-        <v>2345000</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>43670</v>
+      </c>
+      <c r="F21" t="s">
         <v>78</v>
       </c>
-      <c r="E21">
-        <v>67000</v>
-      </c>
-      <c r="F21" t="s">
-        <v>10</v>
-      </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1915,19 +1893,19 @@
         <v>80</v>
       </c>
       <c r="C22">
-        <v>3372087</v>
+        <v>136800</v>
       </c>
       <c r="D22" t="s">
         <v>81</v>
       </c>
       <c r="E22">
-        <v>108777</v>
+        <v>3800</v>
       </c>
       <c r="F22" t="s">
         <v>23</v>
       </c>
       <c r="G22" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1938,19 +1916,19 @@
         <v>83</v>
       </c>
       <c r="C23">
-        <v>7195560</v>
+        <v>2432360</v>
       </c>
       <c r="D23" t="s">
         <v>84</v>
       </c>
       <c r="E23">
-        <v>239852</v>
+        <v>71540</v>
       </c>
       <c r="F23" t="s">
         <v>23</v>
       </c>
       <c r="G23" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1961,410 +1939,410 @@
         <v>86</v>
       </c>
       <c r="C24">
-        <v>1391280</v>
+        <v>2345000</v>
       </c>
       <c r="D24" t="s">
         <v>87</v>
       </c>
       <c r="E24">
-        <v>44880</v>
+        <v>67000</v>
       </c>
       <c r="F24" t="s">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="G24" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" t="s">
         <v>89</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25">
+        <v>412393</v>
+      </c>
+      <c r="D25" t="s">
         <v>90</v>
       </c>
-      <c r="C25">
-        <v>341250</v>
-      </c>
-      <c r="D25" t="s">
-        <v>91</v>
-      </c>
       <c r="E25">
-        <v>11375</v>
+        <v>13303</v>
       </c>
       <c r="F25" t="s">
         <v>23</v>
       </c>
       <c r="G25" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" t="s">
         <v>92</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26">
+        <v>341250</v>
+      </c>
+      <c r="D26" t="s">
         <v>93</v>
       </c>
-      <c r="C26">
-        <v>1627200</v>
-      </c>
-      <c r="D26" t="s">
-        <v>94</v>
-      </c>
       <c r="E26">
-        <v>50850</v>
+        <v>11375</v>
       </c>
       <c r="F26" t="s">
         <v>23</v>
       </c>
       <c r="G26" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" t="s">
         <v>95</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27">
+        <v>1540000</v>
+      </c>
+      <c r="D27" t="s">
         <v>96</v>
       </c>
-      <c r="C27">
-        <v>60000</v>
-      </c>
-      <c r="D27" t="s">
-        <v>97</v>
-      </c>
       <c r="E27">
-        <v>2500</v>
+        <v>55000</v>
       </c>
       <c r="F27" t="s">
         <v>23</v>
       </c>
       <c r="G27" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" t="s">
         <v>98</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28">
+        <v>2225000</v>
+      </c>
+      <c r="D28" t="s">
         <v>99</v>
       </c>
-      <c r="C28">
-        <v>261900</v>
-      </c>
-      <c r="D28" t="s">
-        <v>100</v>
-      </c>
       <c r="E28">
-        <v>9700</v>
+        <v>89000</v>
       </c>
       <c r="F28" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29">
+        <v>51870</v>
+      </c>
+      <c r="D29" t="s">
         <v>102</v>
       </c>
-      <c r="B29" t="s">
-        <v>103</v>
-      </c>
-      <c r="C29">
-        <v>1517956</v>
-      </c>
-      <c r="D29" t="s">
-        <v>104</v>
-      </c>
       <c r="E29">
-        <v>68998</v>
+        <v>2470</v>
       </c>
       <c r="F29" t="s">
         <v>23</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30">
+        <v>60000</v>
+      </c>
+      <c r="D30" t="s">
         <v>105</v>
       </c>
-      <c r="B30" t="s">
-        <v>106</v>
-      </c>
-      <c r="C30">
-        <v>191860</v>
-      </c>
-      <c r="D30" t="s">
-        <v>107</v>
-      </c>
       <c r="E30">
-        <v>9593</v>
+        <v>2500</v>
       </c>
       <c r="F30" t="s">
         <v>23</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31">
+        <v>261900</v>
+      </c>
+      <c r="D31" t="s">
         <v>108</v>
       </c>
-      <c r="B31" t="s">
+      <c r="E31">
+        <v>9700</v>
+      </c>
+      <c r="F31" t="s">
         <v>109</v>
       </c>
-      <c r="C31">
-        <v>2859740</v>
-      </c>
-      <c r="D31" t="s">
-        <v>110</v>
-      </c>
-      <c r="E31">
-        <v>109990</v>
-      </c>
-      <c r="F31" t="s">
-        <v>23</v>
-      </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" t="s">
         <v>111</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32">
+        <v>191860</v>
+      </c>
+      <c r="D32" t="s">
         <v>112</v>
       </c>
-      <c r="C32">
-        <v>3406800</v>
-      </c>
-      <c r="D32" t="s">
-        <v>113</v>
-      </c>
       <c r="E32">
-        <v>141950</v>
+        <v>9593</v>
       </c>
       <c r="F32" t="s">
         <v>23</v>
       </c>
       <c r="G32" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" t="s">
         <v>114</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33">
+        <v>1517934</v>
+      </c>
+      <c r="D33" t="s">
         <v>115</v>
       </c>
-      <c r="C33">
-        <v>659300</v>
-      </c>
-      <c r="D33" t="s">
-        <v>116</v>
-      </c>
       <c r="E33">
-        <v>32965</v>
+        <v>68997</v>
       </c>
       <c r="F33" t="s">
         <v>23</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34" t="s">
         <v>117</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34">
+        <v>1398000</v>
+      </c>
+      <c r="D34" t="s">
         <v>118</v>
       </c>
-      <c r="C34">
-        <v>9000000</v>
-      </c>
-      <c r="D34" t="s">
-        <v>119</v>
-      </c>
       <c r="E34">
-        <v>360000</v>
+        <v>69900</v>
       </c>
       <c r="F34" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="G34" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>119</v>
+      </c>
+      <c r="B35" t="s">
         <v>120</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35">
+        <v>3909216</v>
+      </c>
+      <c r="D35" t="s">
         <v>121</v>
       </c>
-      <c r="C35">
-        <v>186165</v>
-      </c>
-      <c r="D35" t="s">
-        <v>122</v>
-      </c>
       <c r="E35">
-        <v>8865</v>
+        <v>162884</v>
       </c>
       <c r="F35" t="s">
         <v>23</v>
       </c>
       <c r="G35" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>122</v>
+      </c>
+      <c r="B36" t="s">
         <v>123</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36">
+        <v>269990</v>
+      </c>
+      <c r="D36" t="s">
         <v>124</v>
       </c>
-      <c r="C36">
-        <v>275000</v>
-      </c>
-      <c r="D36" t="s">
-        <v>125</v>
-      </c>
       <c r="E36">
-        <v>11000</v>
+        <v>9310</v>
       </c>
       <c r="F36" t="s">
         <v>23</v>
       </c>
       <c r="G36" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>125</v>
+      </c>
+      <c r="B37" t="s">
         <v>126</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37">
+        <v>3406800</v>
+      </c>
+      <c r="D37" t="s">
         <v>127</v>
       </c>
-      <c r="C37">
-        <v>242760</v>
-      </c>
-      <c r="D37" t="s">
-        <v>128</v>
-      </c>
       <c r="E37">
-        <v>8670</v>
+        <v>141950</v>
       </c>
       <c r="F37" t="s">
         <v>23</v>
       </c>
       <c r="G37" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>128</v>
+      </c>
+      <c r="B38" t="s">
         <v>129</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38">
+        <v>1549750</v>
+      </c>
+      <c r="D38" t="s">
         <v>130</v>
       </c>
-      <c r="C38">
-        <v>249980</v>
-      </c>
-      <c r="D38" t="s">
-        <v>131</v>
-      </c>
       <c r="E38">
-        <v>12499</v>
+        <v>61990</v>
       </c>
       <c r="F38" t="s">
         <v>23</v>
       </c>
       <c r="G38" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>131</v>
+      </c>
+      <c r="B39" t="s">
         <v>132</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39">
+        <v>863760</v>
+      </c>
+      <c r="D39" t="s">
         <v>133</v>
       </c>
-      <c r="C39">
-        <v>1540000</v>
-      </c>
-      <c r="D39" t="s">
-        <v>134</v>
-      </c>
       <c r="E39">
-        <v>55000</v>
+        <v>35990</v>
       </c>
       <c r="F39" t="s">
         <v>23</v>
       </c>
       <c r="G39" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>134</v>
+      </c>
+      <c r="B40" t="s">
         <v>135</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40">
+        <v>2859740</v>
+      </c>
+      <c r="D40" t="s">
         <v>136</v>
       </c>
-      <c r="C40">
-        <v>1364748</v>
-      </c>
-      <c r="D40" t="s">
-        <v>137</v>
-      </c>
       <c r="E40">
-        <v>64988</v>
+        <v>109990</v>
       </c>
       <c r="F40" t="s">
         <v>23</v>
       </c>
       <c r="G40" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>137</v>
+      </c>
+      <c r="B41" t="s">
         <v>138</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41">
+        <v>325395</v>
+      </c>
+      <c r="D41" t="s">
         <v>139</v>
       </c>
-      <c r="C41">
-        <v>2991780</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="E41">
+        <v>15495</v>
+      </c>
+      <c r="F41" t="s">
         <v>140</v>
       </c>
-      <c r="E41">
-        <v>135990</v>
-      </c>
-      <c r="F41" t="s">
-        <v>23</v>
-      </c>
       <c r="G41" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2375,19 +2353,19 @@
         <v>142</v>
       </c>
       <c r="C42">
-        <v>1549750</v>
+        <v>390628</v>
       </c>
       <c r="D42" t="s">
         <v>143</v>
       </c>
       <c r="E42">
-        <v>61990</v>
+        <v>13951</v>
       </c>
       <c r="F42" t="s">
         <v>23</v>
       </c>
       <c r="G42" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2398,19 +2376,19 @@
         <v>145</v>
       </c>
       <c r="C43">
-        <v>66470</v>
+        <v>257320</v>
       </c>
       <c r="D43" t="s">
         <v>146</v>
       </c>
       <c r="E43">
-        <v>2890</v>
+        <v>9190</v>
       </c>
       <c r="F43" t="s">
         <v>23</v>
       </c>
       <c r="G43" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2421,19 +2399,19 @@
         <v>148</v>
       </c>
       <c r="C44">
-        <v>4279780</v>
+        <v>3163636</v>
       </c>
       <c r="D44" t="s">
         <v>149</v>
       </c>
       <c r="E44">
-        <v>213989</v>
+        <v>112987</v>
       </c>
       <c r="F44" t="s">
         <v>23</v>
       </c>
       <c r="G44" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2444,19 +2422,19 @@
         <v>151</v>
       </c>
       <c r="C45">
-        <v>184125</v>
+        <v>9000000</v>
       </c>
       <c r="D45" t="s">
         <v>152</v>
       </c>
       <c r="E45">
-        <v>7365</v>
+        <v>360000</v>
       </c>
       <c r="F45" t="s">
         <v>23</v>
       </c>
       <c r="G45" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2467,19 +2445,19 @@
         <v>154</v>
       </c>
       <c r="C46">
-        <v>314980</v>
+        <v>186165</v>
       </c>
       <c r="D46" t="s">
         <v>155</v>
       </c>
       <c r="E46">
-        <v>15749</v>
+        <v>8865</v>
       </c>
       <c r="F46" t="s">
         <v>23</v>
       </c>
       <c r="G46" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2490,19 +2468,19 @@
         <v>157</v>
       </c>
       <c r="C47">
-        <v>390824</v>
+        <v>275000</v>
       </c>
       <c r="D47" t="s">
         <v>158</v>
       </c>
       <c r="E47">
-        <v>13958</v>
+        <v>11000</v>
       </c>
       <c r="F47" t="s">
         <v>23</v>
       </c>
       <c r="G47" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -2513,19 +2491,19 @@
         <v>160</v>
       </c>
       <c r="C48">
-        <v>928200</v>
+        <v>249980</v>
       </c>
       <c r="D48" t="s">
         <v>161</v>
       </c>
       <c r="E48">
-        <v>33150</v>
+        <v>12499</v>
       </c>
       <c r="F48" t="s">
         <v>23</v>
       </c>
       <c r="G48" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2536,42 +2514,42 @@
         <v>163</v>
       </c>
       <c r="C49">
-        <v>3163720</v>
+        <v>237916</v>
       </c>
       <c r="D49" t="s">
         <v>164</v>
       </c>
       <c r="E49">
-        <v>112990</v>
+        <v>8204</v>
       </c>
       <c r="F49" t="s">
-        <v>23</v>
+        <v>165</v>
       </c>
       <c r="G49" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B50" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C50">
-        <v>1103471</v>
+        <v>184000</v>
       </c>
       <c r="D50" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E50">
-        <v>47977</v>
+        <v>7360</v>
       </c>
       <c r="F50" t="s">
-        <v>168</v>
+        <v>23</v>
       </c>
       <c r="G50" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2582,42 +2560,42 @@
         <v>170</v>
       </c>
       <c r="C51">
-        <v>237916</v>
+        <v>66470</v>
       </c>
       <c r="D51" t="s">
         <v>171</v>
       </c>
       <c r="E51">
-        <v>8204</v>
+        <v>2890</v>
       </c>
       <c r="F51" t="s">
-        <v>172</v>
+        <v>23</v>
       </c>
       <c r="G51" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>172</v>
+      </c>
+      <c r="B52" t="s">
         <v>173</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52">
+        <v>302631</v>
+      </c>
+      <c r="D52" t="s">
         <v>174</v>
       </c>
-      <c r="C52">
-        <v>3909240</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="E52">
+        <v>14411</v>
+      </c>
+      <c r="F52" t="s">
         <v>175</v>
       </c>
-      <c r="E52">
-        <v>162885</v>
-      </c>
-      <c r="F52" t="s">
-        <v>23</v>
-      </c>
       <c r="G52" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2628,19 +2606,19 @@
         <v>177</v>
       </c>
       <c r="C53">
-        <v>351260</v>
+        <v>659300</v>
       </c>
       <c r="D53" t="s">
         <v>178</v>
       </c>
       <c r="E53">
-        <v>17563</v>
+        <v>32965</v>
       </c>
       <c r="F53" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2651,19 +2629,19 @@
         <v>180</v>
       </c>
       <c r="C54">
-        <v>2225000</v>
+        <v>351220</v>
       </c>
       <c r="D54" t="s">
         <v>181</v>
       </c>
       <c r="E54">
-        <v>89000</v>
+        <v>17561</v>
       </c>
       <c r="F54" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="G54" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2674,19 +2652,19 @@
         <v>183</v>
       </c>
       <c r="C55">
-        <v>302715</v>
+        <v>1103471</v>
       </c>
       <c r="D55" t="s">
         <v>184</v>
       </c>
       <c r="E55">
-        <v>14415</v>
+        <v>47977</v>
       </c>
       <c r="F55" t="s">
         <v>185</v>
       </c>
       <c r="G55" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -2697,1054 +2675,1054 @@
         <v>187</v>
       </c>
       <c r="C56">
-        <v>358008</v>
+        <v>317580</v>
       </c>
       <c r="D56" t="s">
         <v>188</v>
       </c>
       <c r="E56">
-        <v>17048</v>
+        <v>15879</v>
       </c>
       <c r="F56" t="s">
-        <v>189</v>
+        <v>23</v>
       </c>
       <c r="G56" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>189</v>
+      </c>
+      <c r="B57" t="s">
         <v>190</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57">
+        <v>1364790</v>
+      </c>
+      <c r="D57" t="s">
         <v>191</v>
       </c>
-      <c r="C57">
-        <v>51870</v>
-      </c>
-      <c r="D57" t="s">
-        <v>192</v>
-      </c>
       <c r="E57">
-        <v>2470</v>
+        <v>64990</v>
       </c>
       <c r="F57" t="s">
         <v>23</v>
       </c>
       <c r="G57" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>192</v>
+      </c>
+      <c r="B58" t="s">
         <v>193</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58">
+        <v>2991780</v>
+      </c>
+      <c r="D58" t="s">
         <v>194</v>
       </c>
-      <c r="C58">
-        <v>864000</v>
-      </c>
-      <c r="D58" t="s">
-        <v>195</v>
-      </c>
       <c r="E58">
-        <v>36000</v>
+        <v>135990</v>
       </c>
       <c r="F58" t="s">
         <v>23</v>
       </c>
       <c r="G58" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>195</v>
+      </c>
+      <c r="B59" t="s">
         <v>196</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59">
+        <v>928200</v>
+      </c>
+      <c r="D59" t="s">
         <v>197</v>
       </c>
-      <c r="C59">
-        <v>1398000</v>
-      </c>
-      <c r="D59" t="s">
-        <v>198</v>
-      </c>
       <c r="E59">
-        <v>69900</v>
+        <v>33150</v>
       </c>
       <c r="F59" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="G59" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>198</v>
+      </c>
+      <c r="B60" t="s">
         <v>199</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60">
+        <v>4279780</v>
+      </c>
+      <c r="D60" t="s">
         <v>200</v>
       </c>
-      <c r="C60">
-        <v>269990</v>
-      </c>
-      <c r="D60" t="s">
-        <v>201</v>
-      </c>
       <c r="E60">
-        <v>9310</v>
+        <v>213989</v>
       </c>
       <c r="F60" t="s">
         <v>23</v>
       </c>
       <c r="G60" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>201</v>
+      </c>
+      <c r="B61" t="s">
         <v>202</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61">
+        <v>798444</v>
+      </c>
+      <c r="D61" t="s">
         <v>203</v>
       </c>
-      <c r="C61">
-        <v>242400</v>
-      </c>
-      <c r="D61" t="s">
-        <v>204</v>
-      </c>
       <c r="E61">
-        <v>20200</v>
+        <v>44358</v>
       </c>
       <c r="F61" t="s">
         <v>23</v>
       </c>
       <c r="G61" t="s">
-        <v>205</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>204</v>
+      </c>
+      <c r="B62" t="s">
+        <v>205</v>
+      </c>
+      <c r="C62">
+        <v>2030000</v>
+      </c>
+      <c r="D62" t="s">
         <v>206</v>
       </c>
-      <c r="B62" t="s">
-        <v>207</v>
-      </c>
-      <c r="C62">
-        <v>253370</v>
-      </c>
-      <c r="D62" t="s">
-        <v>208</v>
-      </c>
       <c r="E62">
-        <v>19490</v>
+        <v>145000</v>
       </c>
       <c r="F62" t="s">
-        <v>209</v>
+        <v>23</v>
       </c>
       <c r="G62" t="s">
-        <v>205</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B63" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C63">
-        <v>660000</v>
+        <v>528000</v>
       </c>
       <c r="D63" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E63">
-        <v>55000</v>
+        <v>33000</v>
       </c>
       <c r="F63" t="s">
         <v>23</v>
       </c>
       <c r="G63" t="s">
-        <v>205</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B64" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C64">
-        <v>603400</v>
+        <v>2735316</v>
       </c>
       <c r="D64" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E64">
-        <v>43100</v>
+        <v>143964</v>
       </c>
       <c r="F64" t="s">
         <v>23</v>
       </c>
       <c r="G64" t="s">
-        <v>205</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B65" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C65">
-        <v>839783</v>
+        <v>192998</v>
       </c>
       <c r="D65" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E65">
-        <v>49399</v>
+        <v>14846</v>
       </c>
       <c r="F65" t="s">
         <v>23</v>
       </c>
       <c r="G65" t="s">
-        <v>205</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>216</v>
+      </c>
+      <c r="B66" t="s">
+        <v>217</v>
+      </c>
+      <c r="C66">
+        <v>201240</v>
+      </c>
+      <c r="D66" t="s">
+        <v>218</v>
+      </c>
+      <c r="E66">
+        <v>15480</v>
+      </c>
+      <c r="F66" t="s">
         <v>219</v>
       </c>
-      <c r="B66" t="s">
-        <v>220</v>
-      </c>
-      <c r="C66">
-        <v>439000</v>
-      </c>
-      <c r="D66" t="s">
-        <v>221</v>
-      </c>
-      <c r="E66">
-        <v>43900</v>
-      </c>
-      <c r="F66" t="s">
-        <v>51</v>
-      </c>
       <c r="G66" t="s">
-        <v>205</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>220</v>
+      </c>
+      <c r="B67" t="s">
+        <v>221</v>
+      </c>
+      <c r="C67">
+        <v>651200</v>
+      </c>
+      <c r="D67" t="s">
         <v>222</v>
       </c>
-      <c r="B67" t="s">
-        <v>223</v>
-      </c>
-      <c r="C67">
-        <v>1710000</v>
-      </c>
-      <c r="D67" t="s">
-        <v>224</v>
-      </c>
       <c r="E67">
-        <v>95000</v>
+        <v>59200</v>
       </c>
       <c r="F67" t="s">
         <v>23</v>
       </c>
       <c r="G67" t="s">
-        <v>205</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>223</v>
+      </c>
+      <c r="B68" t="s">
+        <v>224</v>
+      </c>
+      <c r="C68">
+        <v>7267</v>
+      </c>
+      <c r="D68" t="s">
         <v>225</v>
       </c>
-      <c r="B68" t="s">
-        <v>226</v>
-      </c>
-      <c r="C68">
-        <v>243588</v>
-      </c>
-      <c r="D68" t="s">
-        <v>227</v>
-      </c>
       <c r="E68">
-        <v>20299</v>
+        <v>559</v>
       </c>
       <c r="F68" t="s">
         <v>23</v>
       </c>
       <c r="G68" t="s">
-        <v>205</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>226</v>
+      </c>
+      <c r="B69" t="s">
+        <v>227</v>
+      </c>
+      <c r="C69">
+        <v>1819440</v>
+      </c>
+      <c r="D69" t="s">
         <v>228</v>
       </c>
-      <c r="B69" t="s">
-        <v>229</v>
-      </c>
-      <c r="C69">
-        <v>791640</v>
-      </c>
-      <c r="D69" t="s">
-        <v>230</v>
-      </c>
       <c r="E69">
-        <v>43980</v>
+        <v>129960</v>
       </c>
       <c r="F69" t="s">
-        <v>231</v>
+        <v>23</v>
       </c>
       <c r="G69" t="s">
-        <v>205</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B70" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C70">
-        <v>543898</v>
+        <v>1280000</v>
       </c>
       <c r="D70" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E70">
-        <v>31994</v>
+        <v>80000</v>
       </c>
       <c r="F70" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G70" t="s">
-        <v>205</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B71" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C71">
-        <v>414000</v>
+        <v>215820</v>
       </c>
       <c r="D71" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E71">
-        <v>23000</v>
+        <v>11990</v>
       </c>
       <c r="F71" t="s">
         <v>23</v>
       </c>
       <c r="G71" t="s">
-        <v>205</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B72" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C72">
-        <v>340978</v>
+        <v>930810</v>
       </c>
       <c r="D72" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E72">
-        <v>30998</v>
+        <v>48990</v>
       </c>
       <c r="F72" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="G72" t="s">
-        <v>205</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B73" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C73">
-        <v>182820</v>
+        <v>722000</v>
       </c>
       <c r="D73" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E73">
-        <v>16620</v>
+        <v>38000</v>
       </c>
       <c r="F73" t="s">
-        <v>189</v>
+        <v>23</v>
       </c>
       <c r="G73" t="s">
-        <v>205</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B74" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C74">
-        <v>134840</v>
+        <v>1130870</v>
       </c>
       <c r="D74" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E74">
-        <v>13484</v>
+        <v>86990</v>
       </c>
       <c r="F74" t="s">
         <v>23</v>
       </c>
       <c r="G74" t="s">
-        <v>205</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>244</v>
+      </c>
+      <c r="B75" t="s">
+        <v>245</v>
+      </c>
+      <c r="C75">
+        <v>253370</v>
+      </c>
+      <c r="D75" t="s">
+        <v>246</v>
+      </c>
+      <c r="E75">
+        <v>19490</v>
+      </c>
+      <c r="F75" t="s">
         <v>247</v>
       </c>
-      <c r="B75" t="s">
-        <v>248</v>
-      </c>
-      <c r="C75">
-        <v>155400</v>
-      </c>
-      <c r="D75" t="s">
-        <v>249</v>
-      </c>
-      <c r="E75">
-        <v>12950</v>
-      </c>
-      <c r="F75" t="s">
-        <v>23</v>
-      </c>
       <c r="G75" t="s">
-        <v>205</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>248</v>
+      </c>
+      <c r="B76" t="s">
+        <v>249</v>
+      </c>
+      <c r="C76">
+        <v>660000</v>
+      </c>
+      <c r="D76" t="s">
         <v>250</v>
       </c>
-      <c r="B76" t="s">
-        <v>251</v>
-      </c>
-      <c r="C76">
-        <v>153580</v>
-      </c>
-      <c r="D76" t="s">
-        <v>252</v>
-      </c>
       <c r="E76">
-        <v>15358</v>
+        <v>55000</v>
       </c>
       <c r="F76" t="s">
         <v>23</v>
       </c>
       <c r="G76" t="s">
-        <v>205</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>251</v>
+      </c>
+      <c r="B77" t="s">
+        <v>252</v>
+      </c>
+      <c r="C77">
+        <v>439000</v>
+      </c>
+      <c r="D77" t="s">
         <v>253</v>
       </c>
-      <c r="B77" t="s">
-        <v>254</v>
-      </c>
-      <c r="C77">
-        <v>1284000</v>
-      </c>
-      <c r="D77" t="s">
-        <v>255</v>
-      </c>
       <c r="E77">
-        <v>107000</v>
+        <v>43900</v>
       </c>
       <c r="F77" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="G77" t="s">
-        <v>205</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>254</v>
+      </c>
+      <c r="B78" t="s">
+        <v>255</v>
+      </c>
+      <c r="C78">
+        <v>1710000</v>
+      </c>
+      <c r="D78" t="s">
         <v>256</v>
       </c>
-      <c r="B78" t="s">
-        <v>257</v>
-      </c>
-      <c r="C78">
-        <v>884190</v>
-      </c>
-      <c r="D78" t="s">
-        <v>258</v>
-      </c>
       <c r="E78">
-        <v>58946</v>
+        <v>95000</v>
       </c>
       <c r="F78" t="s">
         <v>23</v>
       </c>
       <c r="G78" t="s">
-        <v>205</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>257</v>
+      </c>
+      <c r="B79" t="s">
+        <v>258</v>
+      </c>
+      <c r="C79">
+        <v>791640</v>
+      </c>
+      <c r="D79" t="s">
         <v>259</v>
       </c>
-      <c r="B79" t="s">
+      <c r="E79">
+        <v>43980</v>
+      </c>
+      <c r="F79" t="s">
         <v>260</v>
       </c>
-      <c r="C79">
-        <v>235956</v>
-      </c>
-      <c r="D79" t="s">
-        <v>261</v>
-      </c>
-      <c r="E79">
-        <v>19663</v>
-      </c>
-      <c r="F79" t="s">
-        <v>262</v>
-      </c>
       <c r="G79" t="s">
-        <v>205</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>261</v>
+      </c>
+      <c r="B80" t="s">
+        <v>262</v>
+      </c>
+      <c r="C80">
+        <v>543898</v>
+      </c>
+      <c r="D80" t="s">
         <v>263</v>
       </c>
-      <c r="B80" t="s">
-        <v>264</v>
-      </c>
-      <c r="C80">
-        <v>598000</v>
-      </c>
-      <c r="D80" t="s">
-        <v>265</v>
-      </c>
       <c r="E80">
-        <v>46000</v>
+        <v>31994</v>
       </c>
       <c r="F80" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="G80" t="s">
-        <v>205</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>264</v>
+      </c>
+      <c r="B81" t="s">
+        <v>265</v>
+      </c>
+      <c r="C81">
+        <v>414000</v>
+      </c>
+      <c r="D81" t="s">
         <v>266</v>
       </c>
-      <c r="B81" t="s">
-        <v>267</v>
-      </c>
-      <c r="C81">
-        <v>471840</v>
-      </c>
-      <c r="D81" t="s">
-        <v>268</v>
-      </c>
       <c r="E81">
-        <v>29490</v>
+        <v>23000</v>
       </c>
       <c r="F81" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G81" t="s">
-        <v>205</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>267</v>
+      </c>
+      <c r="B82" t="s">
+        <v>268</v>
+      </c>
+      <c r="C82">
+        <v>340967</v>
+      </c>
+      <c r="D82" t="s">
         <v>269</v>
       </c>
-      <c r="B82" t="s">
-        <v>270</v>
-      </c>
-      <c r="C82">
-        <v>271920</v>
-      </c>
-      <c r="D82" t="s">
-        <v>271</v>
-      </c>
       <c r="E82">
-        <v>33990</v>
+        <v>30997</v>
       </c>
       <c r="F82" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="G82" t="s">
-        <v>205</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>270</v>
+      </c>
+      <c r="B83" t="s">
+        <v>271</v>
+      </c>
+      <c r="C83">
+        <v>155400</v>
+      </c>
+      <c r="D83" t="s">
         <v>272</v>
       </c>
-      <c r="B83" t="s">
-        <v>273</v>
-      </c>
-      <c r="C83">
-        <v>191400</v>
-      </c>
-      <c r="D83" t="s">
-        <v>274</v>
-      </c>
       <c r="E83">
-        <v>17400</v>
+        <v>12950</v>
       </c>
       <c r="F83" t="s">
-        <v>185</v>
+        <v>23</v>
       </c>
       <c r="G83" t="s">
-        <v>205</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>273</v>
+      </c>
+      <c r="B84" t="s">
+        <v>274</v>
+      </c>
+      <c r="C84">
+        <v>153580</v>
+      </c>
+      <c r="D84" t="s">
         <v>275</v>
       </c>
-      <c r="B84" t="s">
-        <v>276</v>
-      </c>
-      <c r="C84">
-        <v>3933000</v>
-      </c>
-      <c r="D84" t="s">
-        <v>277</v>
-      </c>
       <c r="E84">
-        <v>437000</v>
+        <v>15358</v>
       </c>
       <c r="F84" t="s">
         <v>23</v>
       </c>
       <c r="G84" t="s">
-        <v>205</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>276</v>
+      </c>
+      <c r="B85" t="s">
+        <v>277</v>
+      </c>
+      <c r="C85">
+        <v>1284000</v>
+      </c>
+      <c r="D85" t="s">
         <v>278</v>
       </c>
-      <c r="B85" t="s">
-        <v>279</v>
-      </c>
-      <c r="C85">
-        <v>350857</v>
-      </c>
-      <c r="D85" t="s">
-        <v>280</v>
-      </c>
       <c r="E85">
-        <v>26989</v>
+        <v>107000</v>
       </c>
       <c r="F85" t="s">
-        <v>281</v>
+        <v>23</v>
       </c>
       <c r="G85" t="s">
-        <v>205</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B86" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C86">
-        <v>720000</v>
+        <v>1188000</v>
       </c>
       <c r="D86" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E86">
-        <v>60000</v>
+        <v>108000</v>
       </c>
       <c r="F86" t="s">
         <v>23</v>
       </c>
       <c r="G86" t="s">
-        <v>205</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B87" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C87">
-        <v>1188000</v>
+        <v>1406930</v>
       </c>
       <c r="D87" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E87">
-        <v>108000</v>
+        <v>100495</v>
       </c>
       <c r="F87" t="s">
         <v>23</v>
       </c>
       <c r="G87" t="s">
-        <v>205</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B88" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C88">
-        <v>449900</v>
+        <v>923000</v>
       </c>
       <c r="D88" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E88">
-        <v>44990</v>
+        <v>71000</v>
       </c>
       <c r="F88" t="s">
-        <v>291</v>
+        <v>23</v>
       </c>
       <c r="G88" t="s">
-        <v>205</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B89" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C89">
-        <v>550000</v>
+        <v>151000</v>
       </c>
       <c r="D89" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E89">
-        <v>50000</v>
+        <v>15100</v>
       </c>
       <c r="F89" t="s">
         <v>23</v>
       </c>
       <c r="G89" t="s">
-        <v>205</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B90" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C90">
-        <v>1134000</v>
+        <v>910368</v>
       </c>
       <c r="D90" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E90">
-        <v>63000</v>
+        <v>75864</v>
       </c>
       <c r="F90" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="G90" t="s">
-        <v>205</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B91" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C91">
-        <v>1148400</v>
+        <v>1550000</v>
       </c>
       <c r="D91" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E91">
-        <v>63800</v>
+        <v>155000</v>
       </c>
       <c r="F91" t="s">
         <v>23</v>
       </c>
       <c r="G91" t="s">
-        <v>205</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B92" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C92">
-        <v>748110</v>
+        <v>428870</v>
       </c>
       <c r="D92" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E92">
-        <v>68010</v>
+        <v>32990</v>
       </c>
       <c r="F92" t="s">
         <v>23</v>
       </c>
       <c r="G92" t="s">
-        <v>205</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B93" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C93">
-        <v>627540</v>
+        <v>1118460</v>
       </c>
       <c r="D93" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E93">
-        <v>52295</v>
+        <v>79890</v>
       </c>
       <c r="F93" t="s">
         <v>23</v>
       </c>
       <c r="G93" t="s">
-        <v>205</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B94" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C94">
-        <v>529125</v>
+        <v>176800</v>
       </c>
       <c r="D94" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E94">
-        <v>31125</v>
+        <v>13600</v>
       </c>
       <c r="F94" t="s">
         <v>23</v>
       </c>
       <c r="G94" t="s">
-        <v>205</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B95" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C95">
-        <v>1088180</v>
+        <v>121040</v>
       </c>
       <c r="D95" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E95">
-        <v>108818</v>
+        <v>7565</v>
       </c>
       <c r="F95" t="s">
         <v>23</v>
       </c>
       <c r="G95" t="s">
-        <v>205</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B96" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C96">
-        <v>1210000</v>
+        <v>1088180</v>
       </c>
       <c r="D96" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E96">
-        <v>110000</v>
+        <v>108818</v>
       </c>
       <c r="F96" t="s">
         <v>23</v>
       </c>
       <c r="G96" t="s">
-        <v>205</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B97" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C97">
-        <v>270000</v>
+        <v>2169310</v>
       </c>
       <c r="D97" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E97">
-        <v>18000</v>
+        <v>166870</v>
       </c>
       <c r="F97" t="s">
-        <v>319</v>
+        <v>23</v>
       </c>
       <c r="G97" t="s">
-        <v>205</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B98" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C98">
-        <v>306000</v>
+        <v>168000</v>
       </c>
       <c r="D98" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E98">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="F98" t="s">
-        <v>319</v>
+        <v>23</v>
       </c>
       <c r="G98" t="s">
-        <v>205</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B99" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C99">
-        <v>1521720</v>
+        <v>810000</v>
       </c>
       <c r="D99" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="E99">
-        <v>84540</v>
+        <v>81000</v>
       </c>
       <c r="F99" t="s">
-        <v>326</v>
+        <v>23</v>
       </c>
       <c r="G99" t="s">
-        <v>205</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B100" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C100">
-        <v>1403100</v>
+        <v>884190</v>
       </c>
       <c r="D100" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="E100">
-        <v>77950</v>
+        <v>58946</v>
       </c>
       <c r="F100" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="G100" t="s">
-        <v>205</v>
+        <v>11</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B101" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C101">
-        <v>697000</v>
+        <v>598000</v>
       </c>
       <c r="D101" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="E101">
-        <v>69700</v>
+        <v>46000</v>
       </c>
       <c r="F101" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="G101" t="s">
-        <v>205</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
